--- a/resources/experiment 1/predictions/single/LinearRegression/incidence/Neuropatía (INC).xlsx
+++ b/resources/experiment 1/predictions/single/LinearRegression/incidence/Neuropatía (INC).xlsx
@@ -463,7 +463,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9.892933768781489</v>
+        <v>9.892933768781504</v>
       </c>
       <c r="B3" t="n">
         <v>-0.7505647322637614</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>11.89288857148734</v>
+        <v>11.89288857148735</v>
       </c>
       <c r="B5" t="n">
         <v>1.221102514074687</v>
@@ -529,7 +529,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>34.06990775757724</v>
+        <v>34.06990775757725</v>
       </c>
       <c r="B9" t="n">
         <v>22.93545089714457</v>
@@ -543,7 +543,7 @@
         <v>99.5616171210763</v>
       </c>
       <c r="B10" t="n">
-        <v>86.66586935430297</v>
+        <v>86.66586935430298</v>
       </c>
       <c r="C10" t="n">
         <v>107.3896402589655</v>
@@ -554,7 +554,7 @@
         <v>68.28620044629285</v>
       </c>
       <c r="B11" t="n">
-        <v>55.95931575881611</v>
+        <v>55.95931575881612</v>
       </c>
       <c r="C11" t="n">
         <v>77.77281889002569</v>
@@ -562,7 +562,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>48.14850685632653</v>
+        <v>48.14850685632654</v>
       </c>
       <c r="B12" t="n">
         <v>36.64342769096669</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>91.4631970337357</v>
+        <v>91.46319703373568</v>
       </c>
       <c r="B13" t="n">
         <v>78.65949776505522</v>
@@ -595,21 +595,21 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>13.89284337419318</v>
+        <v>13.8928433741932</v>
       </c>
       <c r="B15" t="n">
         <v>3.192769760413142</v>
       </c>
       <c r="C15" t="n">
-        <v>25.87753004935826</v>
+        <v>25.87753004935825</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>35.06988515893017</v>
+        <v>35.06988515893018</v>
       </c>
       <c r="B16" t="n">
-        <v>23.92128452031379</v>
+        <v>23.9212845203138</v>
       </c>
       <c r="C16" t="n">
         <v>45.97851742680335</v>
@@ -642,7 +642,7 @@
         <v>70.30584064570758</v>
       </c>
       <c r="B19" t="n">
-        <v>58.14437953959556</v>
+        <v>58.14437953959557</v>
       </c>
       <c r="C19" t="n">
         <v>79.79493376282369</v>
@@ -650,7 +650,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>37.10921075505376</v>
+        <v>37.10921075505377</v>
       </c>
       <c r="B20" t="n">
         <v>26.31974483553425</v>
@@ -675,7 +675,7 @@
         <v>100.5419091257204</v>
       </c>
       <c r="B22" t="n">
-        <v>87.43830644303119</v>
+        <v>87.43830644303121</v>
       </c>
       <c r="C22" t="n">
         <v>108.4589596534212</v>
@@ -683,18 +683,18 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>14.97156236238159</v>
+        <v>14.9715623623816</v>
       </c>
       <c r="B23" t="n">
-        <v>5.032189521346375</v>
+        <v>5.032189521346368</v>
       </c>
       <c r="C23" t="n">
-        <v>26.75264291695828</v>
+        <v>26.75264291695827</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>35.0501997622213</v>
+        <v>35.05019976222131</v>
       </c>
       <c r="B24" t="n">
         <v>23.70788798587279</v>
@@ -705,7 +705,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>33.08961575293319</v>
+        <v>33.0896157529332</v>
       </c>
       <c r="B25" t="n">
         <v>22.16301380841634</v>
@@ -719,7 +719,7 @@
         <v>25.06993725242805</v>
       </c>
       <c r="B26" t="n">
-        <v>15.01022835693259</v>
+        <v>15.01022835693258</v>
       </c>
       <c r="C26" t="n">
         <v>36.26847690845297</v>
@@ -749,10 +749,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>15.97153976373451</v>
+        <v>15.97153976373452</v>
       </c>
       <c r="B29" t="n">
-        <v>6.018023144515602</v>
+        <v>6.018023144515595</v>
       </c>
       <c r="C29" t="n">
         <v>27.78312100604284</v>
@@ -763,7 +763,7 @@
         <v>47.20758564510022</v>
       </c>
       <c r="B30" t="n">
-        <v>36.29778367112047</v>
+        <v>36.29778367112046</v>
       </c>
       <c r="C30" t="n">
         <v>57.47762498572491</v>
@@ -807,7 +807,7 @@
         <v>60.26652194578772</v>
       </c>
       <c r="B34" t="n">
-        <v>48.80653030733236</v>
+        <v>48.80653030733235</v>
       </c>
       <c r="C34" t="n">
         <v>70.16257585521558</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>26.03054386036324</v>
+        <v>26.03054386036325</v>
       </c>
       <c r="B37" t="n">
         <v>15.56926891121981</v>
@@ -859,10 +859,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>49.16816965438833</v>
+        <v>49.16816965438834</v>
       </c>
       <c r="B39" t="n">
-        <v>37.84265784857692</v>
+        <v>37.84265784857691</v>
       </c>
       <c r="C39" t="n">
         <v>59.61626377463632</v>
@@ -906,7 +906,7 @@
         <v>47.22727104180909</v>
       </c>
       <c r="B43" t="n">
-        <v>36.51118020556147</v>
+        <v>36.51118020556146</v>
       </c>
       <c r="C43" t="n">
         <v>57.43878368035377</v>
@@ -917,7 +917,7 @@
         <v>65.30595363894295</v>
       </c>
       <c r="B44" t="n">
-        <v>53.21521142374943</v>
+        <v>53.21521142374944</v>
       </c>
       <c r="C44" t="n">
         <v>74.64254331740085</v>
@@ -928,7 +928,7 @@
         <v>71.38455963389598</v>
       </c>
       <c r="B45" t="n">
-        <v>59.9837993005288</v>
+        <v>59.98379930052879</v>
       </c>
       <c r="C45" t="n">
         <v>80.67004663042371</v>
@@ -936,7 +936,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>77.46333952182188</v>
+        <v>77.46333952182187</v>
       </c>
       <c r="B46" t="n">
         <v>65.80510710899711</v>
@@ -961,7 +961,7 @@
         <v>48.18787764974428</v>
       </c>
       <c r="B48" t="n">
-        <v>37.0702207598487</v>
+        <v>37.07022075984869</v>
       </c>
       <c r="C48" t="n">
         <v>58.54694438018061</v>
@@ -969,7 +969,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>21.97157806482493</v>
+        <v>21.97157806482494</v>
       </c>
       <c r="B49" t="n">
         <v>10.9857448152199</v>
@@ -980,7 +980,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>25.9911730669455</v>
+        <v>25.99117306694551</v>
       </c>
       <c r="B50" t="n">
         <v>15.14247584233781</v>
@@ -991,7 +991,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>9.932304562199228</v>
+        <v>9.932304562199235</v>
       </c>
       <c r="B51" t="n">
         <v>-0.3237716633817627</v>
@@ -1005,7 +1005,7 @@
         <v>76.38462053363347</v>
       </c>
       <c r="B52" t="n">
-        <v>63.96568734806387</v>
+        <v>63.96568734806388</v>
       </c>
       <c r="C52" t="n">
         <v>85.22769670335126</v>
@@ -1016,7 +1016,7 @@
         <v>49.22722584451494</v>
       </c>
       <c r="B53" t="n">
-        <v>38.48284745189992</v>
+        <v>38.48284745189991</v>
       </c>
       <c r="C53" t="n">
         <v>59.49973985852291</v>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>13.93221416761092</v>
+        <v>13.93221416761094</v>
       </c>
       <c r="B54" t="n">
-        <v>3.619562829295148</v>
+        <v>3.619562829295141</v>
       </c>
       <c r="C54" t="n">
         <v>25.79984743861598</v>
@@ -1035,7 +1035,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>25.01088106230144</v>
+        <v>25.01088106230145</v>
       </c>
       <c r="B55" t="n">
         <v>14.37003875360958</v>
@@ -1049,7 +1049,7 @@
         <v>78.36488993963044</v>
       </c>
       <c r="B56" t="n">
-        <v>65.72395805996132</v>
+        <v>65.72395805996133</v>
       </c>
       <c r="C56" t="n">
         <v>87.32749418689153</v>
@@ -1060,7 +1060,7 @@
         <v>88.46326482967692</v>
       </c>
       <c r="B57" t="n">
-        <v>75.70199689554754</v>
+        <v>75.70199689554755</v>
       </c>
       <c r="C57" t="n">
         <v>96.84332817838622</v>
@@ -1090,13 +1090,13 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>14.91250617225498</v>
+        <v>14.91250617225499</v>
       </c>
       <c r="B60" t="n">
-        <v>4.391999918023373</v>
+        <v>4.391999918023366</v>
       </c>
       <c r="C60" t="n">
-        <v>26.86916683307169</v>
+        <v>26.86916683307168</v>
       </c>
     </row>
     <row r="61">
@@ -1115,7 +1115,7 @@
         <v>68.30588584300173</v>
       </c>
       <c r="B62" t="n">
-        <v>56.17271229325711</v>
+        <v>56.17271229325712</v>
       </c>
       <c r="C62" t="n">
         <v>77.73397758465455</v>
@@ -1134,13 +1134,13 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>14.93219156896385</v>
+        <v>14.93219156896386</v>
       </c>
       <c r="B64" t="n">
-        <v>4.605396452464376</v>
+        <v>4.605396452464369</v>
       </c>
       <c r="C64" t="n">
-        <v>26.83032552770055</v>
+        <v>26.83032552770054</v>
       </c>
     </row>
     <row r="65">
@@ -1170,7 +1170,7 @@
         <v>58.28625253979074</v>
       </c>
       <c r="B67" t="n">
-        <v>47.04825959543491</v>
+        <v>47.0482595954349</v>
       </c>
       <c r="C67" t="n">
         <v>68.06277837167531</v>
@@ -1178,10 +1178,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>23.97153286753078</v>
+        <v>23.97153286753079</v>
       </c>
       <c r="B68" t="n">
-        <v>12.95741206155835</v>
+        <v>12.95741206155836</v>
       </c>
       <c r="C68" t="n">
         <v>35.43220534622409</v>
@@ -1217,7 +1217,7 @@
         <v>31.92765610956156</v>
       </c>
       <c r="C71" t="n">
-        <v>53.43339524012891</v>
+        <v>53.43339524012892</v>
       </c>
     </row>
     <row r="72">
